--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1367"/>
+  <dimension ref="A1:J1368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43983,15 +43983,47 @@
       <c r="A1367" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B1367" t="inlineStr"/>
-      <c r="C1367" t="inlineStr"/>
-      <c r="D1367" t="inlineStr"/>
-      <c r="E1367" t="inlineStr"/>
-      <c r="F1367" t="inlineStr"/>
-      <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr"/>
-      <c r="I1367" t="inlineStr"/>
-      <c r="J1367" t="inlineStr"/>
+      <c r="B1367" t="n">
+        <v>0.4980000000000011</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>0.1733333333333329</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>-0.1673333333333336</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>0.4740000000000002</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>0.1766666666666659</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>-0.5056666666666656</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>-0.7253333333333334</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>-0.01090476190476178</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B1368" t="inlineStr"/>
+      <c r="C1368" t="inlineStr"/>
+      <c r="D1368" t="inlineStr"/>
+      <c r="E1368" t="inlineStr"/>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="inlineStr"/>
+      <c r="H1368" t="inlineStr"/>
+      <c r="I1368" t="inlineStr"/>
+      <c r="J1368" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1368"/>
+  <dimension ref="A1:J1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44015,15 +44015,47 @@
       <c r="A1368" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B1368" t="inlineStr"/>
-      <c r="C1368" t="inlineStr"/>
-      <c r="D1368" t="inlineStr"/>
-      <c r="E1368" t="inlineStr"/>
-      <c r="F1368" t="inlineStr"/>
-      <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr"/>
-      <c r="I1368" t="inlineStr"/>
-      <c r="J1368" t="inlineStr"/>
+      <c r="B1368" t="n">
+        <v>1.141666666666667</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>3.130000000000001</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>1.952666666666664</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>1.466666666666667</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>2.587666666666665</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>1.681333333333333</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>1.954857142857142</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B1369" t="inlineStr"/>
+      <c r="C1369" t="inlineStr"/>
+      <c r="D1369" t="inlineStr"/>
+      <c r="E1369" t="inlineStr"/>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="inlineStr"/>
+      <c r="H1369" t="inlineStr"/>
+      <c r="I1369" t="inlineStr"/>
+      <c r="J1369" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1369"/>
+  <dimension ref="A1:J1370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43993,7 +43993,7 @@
         <v>-0.1673333333333336</v>
       </c>
       <c r="E1367" t="n">
-        <v>0.4740000000000002</v>
+        <v>0.5739999999999998</v>
       </c>
       <c r="F1367" t="n">
         <v>0.1766666666666659</v>
@@ -44005,10 +44005,10 @@
         <v>-0.7253333333333334</v>
       </c>
       <c r="I1367" t="n">
-        <v>-0.01090476190476178</v>
+        <v>0.003380952380952453</v>
       </c>
       <c r="J1367" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1368">
@@ -44047,15 +44047,47 @@
       <c r="A1369" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B1369" t="inlineStr"/>
-      <c r="C1369" t="inlineStr"/>
-      <c r="D1369" t="inlineStr"/>
-      <c r="E1369" t="inlineStr"/>
-      <c r="F1369" t="inlineStr"/>
-      <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr"/>
-      <c r="I1369" t="inlineStr"/>
-      <c r="J1369" t="inlineStr"/>
+      <c r="B1369" t="n">
+        <v>1.521666666666667</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>1.340000000000002</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>1.142666666666667</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>1.412333333333333</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>1.670000000000002</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>1.770999999999999</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>1.094666666666665</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>1.421761904761905</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B1370" t="inlineStr"/>
+      <c r="C1370" t="inlineStr"/>
+      <c r="D1370" t="inlineStr"/>
+      <c r="E1370" t="inlineStr"/>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="inlineStr"/>
+      <c r="H1370" t="inlineStr"/>
+      <c r="I1370" t="inlineStr"/>
+      <c r="J1370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1370"/>
+  <dimension ref="A1:J1371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44079,15 +44079,47 @@
       <c r="A1370" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B1370" t="inlineStr"/>
-      <c r="C1370" t="inlineStr"/>
-      <c r="D1370" t="inlineStr"/>
-      <c r="E1370" t="inlineStr"/>
-      <c r="F1370" t="inlineStr"/>
-      <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr"/>
-      <c r="I1370" t="inlineStr"/>
-      <c r="J1370" t="inlineStr"/>
+      <c r="B1370" t="n">
+        <v>1.280000000000003</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>0.9099999999999966</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>0.7133333333333329</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>1.672999999999998</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>2.483333333333333</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2.10266666666667</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>1.559761904761905</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B1371" t="inlineStr"/>
+      <c r="C1371" t="inlineStr"/>
+      <c r="D1371" t="inlineStr"/>
+      <c r="E1371" t="inlineStr"/>
+      <c r="F1371" t="inlineStr"/>
+      <c r="G1371" t="inlineStr"/>
+      <c r="H1371" t="inlineStr"/>
+      <c r="I1371" t="inlineStr"/>
+      <c r="J1371" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1371"/>
+  <dimension ref="A1:J1372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44111,15 +44111,47 @@
       <c r="A1371" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B1371" t="inlineStr"/>
-      <c r="C1371" t="inlineStr"/>
-      <c r="D1371" t="inlineStr"/>
-      <c r="E1371" t="inlineStr"/>
-      <c r="F1371" t="inlineStr"/>
-      <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr"/>
-      <c r="I1371" t="inlineStr"/>
-      <c r="J1371" t="inlineStr"/>
+      <c r="B1371" t="n">
+        <v>0.370000000000001</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>1.356666666666664</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>1.310000000000002</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>1.679666666666664</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>1.253333333333336</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>1.606</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2.259333333333338</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>1.405000000000001</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B1372" t="inlineStr"/>
+      <c r="C1372" t="inlineStr"/>
+      <c r="D1372" t="inlineStr"/>
+      <c r="E1372" t="inlineStr"/>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="inlineStr"/>
+      <c r="H1372" t="inlineStr"/>
+      <c r="I1372" t="inlineStr"/>
+      <c r="J1372" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1372"/>
+  <dimension ref="A1:J1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44143,15 +44143,47 @@
       <c r="A1372" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B1372" t="inlineStr"/>
-      <c r="C1372" t="inlineStr"/>
-      <c r="D1372" t="inlineStr"/>
-      <c r="E1372" t="inlineStr"/>
-      <c r="F1372" t="inlineStr"/>
-      <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr"/>
-      <c r="I1372" t="inlineStr"/>
-      <c r="J1372" t="inlineStr"/>
+      <c r="B1372" t="n">
+        <v>-0.8200000000000003</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>-0.2551724137931046</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>0.2099999999999973</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>-0.1270000000000007</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>-0.173333333333332</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>0.4843333333333355</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>0.499333333333329</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>-0.02597701149425369</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B1373" t="inlineStr"/>
+      <c r="C1373" t="inlineStr"/>
+      <c r="D1373" t="inlineStr"/>
+      <c r="E1373" t="inlineStr"/>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="inlineStr"/>
+      <c r="H1373" t="inlineStr"/>
+      <c r="I1373" t="inlineStr"/>
+      <c r="J1373" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1373"/>
+  <dimension ref="A1:J1374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44175,15 +44175,47 @@
       <c r="A1373" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B1373" t="inlineStr"/>
-      <c r="C1373" t="inlineStr"/>
-      <c r="D1373" t="inlineStr"/>
-      <c r="E1373" t="inlineStr"/>
-      <c r="F1373" t="inlineStr"/>
-      <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr"/>
-      <c r="I1373" t="inlineStr"/>
-      <c r="J1373" t="inlineStr"/>
+      <c r="B1373" t="n">
+        <v>1.653333333333334</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>1.976666666666668</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>0.7033333333333331</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>1.192999999999998</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>0.6400000000000006</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>2.191000000000001</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>1.306000000000003</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>1.380476190476191</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B1374" t="inlineStr"/>
+      <c r="C1374" t="inlineStr"/>
+      <c r="D1374" t="inlineStr"/>
+      <c r="E1374" t="inlineStr"/>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="inlineStr"/>
+      <c r="H1374" t="inlineStr"/>
+      <c r="I1374" t="inlineStr"/>
+      <c r="J1374" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1374"/>
+  <dimension ref="A1:J1376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44207,15 +44207,79 @@
       <c r="A1374" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B1374" t="inlineStr"/>
-      <c r="C1374" t="inlineStr"/>
-      <c r="D1374" t="inlineStr"/>
-      <c r="E1374" t="inlineStr"/>
-      <c r="F1374" t="inlineStr"/>
-      <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr"/>
-      <c r="I1374" t="inlineStr"/>
-      <c r="J1374" t="inlineStr"/>
+      <c r="B1374" t="n">
+        <v>1.946666666666667</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>3.093333333333335</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>2.056666666666667</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>2.872999999999998</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>2.586666666666666</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>2.977666666666666</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>2.468571428571429</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>-0.0166666666666675</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>0.9166666666666665</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>0.7466666666666653</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>1.564</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>0.6966666666666681</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>3.251</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>2.046</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>1.314904761904762</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B1376" t="inlineStr"/>
+      <c r="C1376" t="inlineStr"/>
+      <c r="D1376" t="inlineStr"/>
+      <c r="E1376" t="inlineStr"/>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="inlineStr"/>
+      <c r="H1376" t="inlineStr"/>
+      <c r="I1376" t="inlineStr"/>
+      <c r="J1376" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1376"/>
+  <dimension ref="A1:J1377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44271,15 +44271,47 @@
       <c r="A1376" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B1376" t="inlineStr"/>
-      <c r="C1376" t="inlineStr"/>
-      <c r="D1376" t="inlineStr"/>
-      <c r="E1376" t="inlineStr"/>
-      <c r="F1376" t="inlineStr"/>
-      <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr"/>
-      <c r="I1376" t="inlineStr"/>
-      <c r="J1376" t="inlineStr"/>
+      <c r="B1376" t="n">
+        <v>1.446666666666664</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>0.05333333333333279</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>-0.1633333333333313</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>1.543999999999999</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>1.373333333333333</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>1.107666666666667</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>2.376</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>1.105380952380952</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B1377" t="inlineStr"/>
+      <c r="C1377" t="inlineStr"/>
+      <c r="D1377" t="inlineStr"/>
+      <c r="E1377" t="inlineStr"/>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="inlineStr"/>
+      <c r="H1377" t="inlineStr"/>
+      <c r="I1377" t="inlineStr"/>
+      <c r="J1377" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1377"/>
+  <dimension ref="A1:J1378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44303,15 +44303,47 @@
       <c r="A1377" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B1377" t="inlineStr"/>
-      <c r="C1377" t="inlineStr"/>
-      <c r="D1377" t="inlineStr"/>
-      <c r="E1377" t="inlineStr"/>
-      <c r="F1377" t="inlineStr"/>
-      <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr"/>
-      <c r="I1377" t="inlineStr"/>
-      <c r="J1377" t="inlineStr"/>
+      <c r="B1377" t="n">
+        <v>-1.433333333333335</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>-0.8966666666666674</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>-1.042666666666666</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>-1.223333333333334</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>-0.5923333333333334</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>-0.007333333333332526</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>-0.9293809523809526</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B1378" t="inlineStr"/>
+      <c r="C1378" t="inlineStr"/>
+      <c r="D1378" t="inlineStr"/>
+      <c r="E1378" t="inlineStr"/>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="inlineStr"/>
+      <c r="H1378" t="inlineStr"/>
+      <c r="I1378" t="inlineStr"/>
+      <c r="J1378" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1378"/>
+  <dimension ref="A1:J1379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44335,15 +44335,47 @@
       <c r="A1378" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B1378" t="inlineStr"/>
-      <c r="C1378" t="inlineStr"/>
-      <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr"/>
-      <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr"/>
-      <c r="I1378" t="inlineStr"/>
-      <c r="J1378" t="inlineStr"/>
+      <c r="B1378" t="n">
+        <v>0.9506666666666632</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>2.280000000000001</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>1.182666666666668</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>0.8999999999999986</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>1.514333333333334</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>1.091333333333333</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>1.341857142857143</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B1379" t="inlineStr"/>
+      <c r="C1379" t="inlineStr"/>
+      <c r="D1379" t="inlineStr"/>
+      <c r="E1379" t="inlineStr"/>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr"/>
+      <c r="H1379" t="inlineStr"/>
+      <c r="I1379" t="inlineStr"/>
+      <c r="J1379" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1379"/>
+  <dimension ref="A1:J1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44367,15 +44367,47 @@
       <c r="A1379" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B1379" t="inlineStr"/>
-      <c r="C1379" t="inlineStr"/>
-      <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr"/>
-      <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr"/>
-      <c r="H1379" t="inlineStr"/>
-      <c r="I1379" t="inlineStr"/>
-      <c r="J1379" t="inlineStr"/>
+      <c r="B1379" t="n">
+        <v>0.6253333333333355</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>-0.09666666666666668</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>-0.08400000000000141</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>0.1506666666666661</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>-0.9299999999999997</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>0.1209999999999996</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>0.09799999999999809</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>-0.0165238095238098</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B1380" t="inlineStr"/>
+      <c r="C1380" t="inlineStr"/>
+      <c r="D1380" t="inlineStr"/>
+      <c r="E1380" t="inlineStr"/>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="inlineStr"/>
+      <c r="H1380" t="inlineStr"/>
+      <c r="I1380" t="inlineStr"/>
+      <c r="J1380" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1380"/>
+  <dimension ref="A1:J1381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44399,15 +44399,47 @@
       <c r="A1380" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="B1380" t="inlineStr"/>
-      <c r="C1380" t="inlineStr"/>
-      <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr"/>
-      <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr"/>
-      <c r="I1380" t="inlineStr"/>
-      <c r="J1380" t="inlineStr"/>
+      <c r="B1380" t="n">
+        <v>0.4049999999999994</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>0.8199999999999994</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>0.6460000000000008</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>0.3940000000000001</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>0.2866666666666671</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>0.4143333333333352</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>0.3880000000000017</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>0.4791428571428576</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B1381" t="inlineStr"/>
+      <c r="C1381" t="inlineStr"/>
+      <c r="D1381" t="inlineStr"/>
+      <c r="E1381" t="inlineStr"/>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="inlineStr"/>
+      <c r="H1381" t="inlineStr"/>
+      <c r="I1381" t="inlineStr"/>
+      <c r="J1381" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1381"/>
+  <dimension ref="A1:J1382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44431,15 +44431,47 @@
       <c r="A1381" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="B1381" t="inlineStr"/>
-      <c r="C1381" t="inlineStr"/>
-      <c r="D1381" t="inlineStr"/>
-      <c r="E1381" t="inlineStr"/>
-      <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr"/>
-      <c r="I1381" t="inlineStr"/>
-      <c r="J1381" t="inlineStr"/>
+      <c r="B1381" t="n">
+        <v>1.311666666666664</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>0.7826666666666693</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>1.928999999999998</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>1.319999999999997</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>1.444333333333333</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>0.7479999999999976</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>1.336523809523808</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B1382" t="inlineStr"/>
+      <c r="C1382" t="inlineStr"/>
+      <c r="D1382" t="inlineStr"/>
+      <c r="E1382" t="inlineStr"/>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="inlineStr"/>
+      <c r="H1382" t="inlineStr"/>
+      <c r="I1382" t="inlineStr"/>
+      <c r="J1382" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1382"/>
+  <dimension ref="A1:J1383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44463,15 +44463,47 @@
       <c r="A1382" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="B1382" t="inlineStr"/>
-      <c r="C1382" t="inlineStr"/>
-      <c r="D1382" t="inlineStr"/>
-      <c r="E1382" t="inlineStr"/>
-      <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr"/>
-      <c r="I1382" t="inlineStr"/>
-      <c r="J1382" t="inlineStr"/>
+      <c r="B1382" t="n">
+        <v>1.393333333333334</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>1.323333333333334</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>1.243333333333331</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>0.9596666666666671</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>0.3966666666666683</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>1.257666666666665</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>0.4426666666666694</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>1.002380952380953</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B1383" t="inlineStr"/>
+      <c r="C1383" t="inlineStr"/>
+      <c r="D1383" t="inlineStr"/>
+      <c r="E1383" t="inlineStr"/>
+      <c r="F1383" t="inlineStr"/>
+      <c r="G1383" t="inlineStr"/>
+      <c r="H1383" t="inlineStr"/>
+      <c r="I1383" t="inlineStr"/>
+      <c r="J1383" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1383"/>
+  <dimension ref="A1:J1384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44495,15 +44495,47 @@
       <c r="A1383" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="B1383" t="inlineStr"/>
-      <c r="C1383" t="inlineStr"/>
-      <c r="D1383" t="inlineStr"/>
-      <c r="E1383" t="inlineStr"/>
-      <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr"/>
-      <c r="H1383" t="inlineStr"/>
-      <c r="I1383" t="inlineStr"/>
-      <c r="J1383" t="inlineStr"/>
+      <c r="B1383" t="n">
+        <v>-0.5666666666666664</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>-0.4633333333333312</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>0.2799999999999958</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>-0.2303333333333342</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>-1.743333333333329</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>-0.50566666666667</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>0.1326666666666672</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>-0.4423809523809525</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B1384" t="inlineStr"/>
+      <c r="C1384" t="inlineStr"/>
+      <c r="D1384" t="inlineStr"/>
+      <c r="E1384" t="inlineStr"/>
+      <c r="F1384" t="inlineStr"/>
+      <c r="G1384" t="inlineStr"/>
+      <c r="H1384" t="inlineStr"/>
+      <c r="I1384" t="inlineStr"/>
+      <c r="J1384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1384"/>
+  <dimension ref="A1:J1385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44527,15 +44527,47 @@
       <c r="A1384" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="B1384" t="inlineStr"/>
-      <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="inlineStr"/>
-      <c r="E1384" t="inlineStr"/>
-      <c r="F1384" t="inlineStr"/>
-      <c r="G1384" t="inlineStr"/>
-      <c r="H1384" t="inlineStr"/>
-      <c r="I1384" t="inlineStr"/>
-      <c r="J1384" t="inlineStr"/>
+      <c r="B1384" t="n">
+        <v>-0.9199999999999999</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>-1.555172413793104</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>-0.7900000000000027</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>-1.027000000000001</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>-1.373333333333333</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>-1.215666666666666</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>-1.000666666666671</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>-1.125977011494254</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>-1.13</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1385" t="inlineStr"/>
+      <c r="C1385" t="inlineStr"/>
+      <c r="D1385" t="inlineStr"/>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
+      <c r="G1385" t="inlineStr"/>
+      <c r="H1385" t="inlineStr"/>
+      <c r="I1385" t="inlineStr"/>
+      <c r="J1385" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1385"/>
+  <dimension ref="A1:J1386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,7 +1084,7 @@
         <v>3958</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.6850000000000005</v>
+        <v>-0.6816666666666666</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
@@ -1101,7 +1101,7 @@
         <v>-0.3819999999999997</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.04253333333333309</v>
+        <v>-0.04186666666666632</v>
       </c>
       <c r="J24" t="n">
         <v>-0.04</v>
@@ -1420,7 +1420,7 @@
         <v>4323</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.685</v>
+        <v>-2.681666666666667</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
@@ -1437,7 +1437,7 @@
         <v>-2.181999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.062533333333333</v>
+        <v>-2.061866666666666</v>
       </c>
       <c r="J36" t="n">
         <v>-2.06</v>
@@ -1778,7 +1778,7 @@
         <v>4689</v>
       </c>
       <c r="B48" t="n">
-        <v>-2.785</v>
+        <v>-2.781666666666666</v>
       </c>
       <c r="C48" t="n">
         <v>-0.7199999999999998</v>
@@ -1799,7 +1799,7 @@
         <v>-2.281999999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>-1.127999999999999</v>
+        <v>-1.127523809523809</v>
       </c>
       <c r="J48" t="n">
         <v>-1.13</v>
@@ -2162,7 +2162,7 @@
         <v>5054</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.785</v>
+        <v>-1.781666666666666</v>
       </c>
       <c r="C60" t="n">
         <v>-1.02</v>
@@ -2183,7 +2183,7 @@
         <v>-1.071999999999999</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.8837142857142855</v>
+        <v>-0.8832380952380949</v>
       </c>
       <c r="J60" t="n">
         <v>-0.88</v>
@@ -2546,7 +2546,7 @@
         <v>5419</v>
       </c>
       <c r="B72" t="n">
-        <v>-2.785</v>
+        <v>-2.781666666666666</v>
       </c>
       <c r="C72" t="n">
         <v>-1.92</v>
@@ -2567,7 +2567,7 @@
         <v>-1.871999999999999</v>
       </c>
       <c r="I72" t="n">
-        <v>-1.412285714285714</v>
+        <v>-1.411809523809524</v>
       </c>
       <c r="J72" t="n">
         <v>-1.41</v>
@@ -2930,7 +2930,7 @@
         <v>5784</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.785</v>
+        <v>-1.781666666666666</v>
       </c>
       <c r="C84" t="n">
         <v>-0.3199999999999994</v>
@@ -2951,7 +2951,7 @@
         <v>-0.7719999999999994</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.8837142857142851</v>
+        <v>-0.8832380952380945</v>
       </c>
       <c r="J84" t="n">
         <v>-0.88</v>
@@ -3314,7 +3314,7 @@
         <v>6150</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.4850000000000012</v>
+        <v>-0.4816666666666674</v>
       </c>
       <c r="C96" t="n">
         <v>1.38</v>
@@ -3335,7 +3335,7 @@
         <v>0.2280000000000015</v>
       </c>
       <c r="I96" t="n">
-        <v>0.8534285714285719</v>
+        <v>0.8539047619047624</v>
       </c>
       <c r="J96" t="n">
         <v>0.85</v>
@@ -3698,7 +3698,7 @@
         <v>6515</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.8849999999999998</v>
+        <v>-0.8816666666666659</v>
       </c>
       <c r="C108" t="n">
         <v>0.3799999999999999</v>
@@ -3719,7 +3719,7 @@
         <v>0.3280000000000012</v>
       </c>
       <c r="I108" t="n">
-        <v>0.2962857142857149</v>
+        <v>0.2967619047619054</v>
       </c>
       <c r="J108" t="n">
         <v>0.3</v>
@@ -4082,7 +4082,7 @@
         <v>6880</v>
       </c>
       <c r="B120" t="n">
-        <v>-2.285</v>
+        <v>-2.281666666666666</v>
       </c>
       <c r="C120" t="n">
         <v>-1.22</v>
@@ -4103,7 +4103,7 @@
         <v>-1.972</v>
       </c>
       <c r="I120" t="n">
-        <v>-1.503714285714285</v>
+        <v>-1.503238095238095</v>
       </c>
       <c r="J120" t="n">
         <v>-1.5</v>
@@ -4466,7 +4466,7 @@
         <v>7245</v>
       </c>
       <c r="B132" t="n">
-        <v>-4.685</v>
+        <v>-4.681666666666667</v>
       </c>
       <c r="C132" t="n">
         <v>-1.819999999999999</v>
@@ -4487,7 +4487,7 @@
         <v>-2.371999999999999</v>
       </c>
       <c r="I132" t="n">
-        <v>-2.246571428571428</v>
+        <v>-2.246095238095238</v>
       </c>
       <c r="J132" t="n">
         <v>-2.25</v>
@@ -4850,7 +4850,7 @@
         <v>7611</v>
       </c>
       <c r="B144" t="n">
-        <v>-2.085000000000001</v>
+        <v>-2.081666666666667</v>
       </c>
       <c r="C144" t="n">
         <v>-0.7199999999999998</v>
@@ -4871,7 +4871,7 @@
         <v>-2.271999999999998</v>
       </c>
       <c r="I144" t="n">
-        <v>-1.818</v>
+        <v>-1.817523809523809</v>
       </c>
       <c r="J144" t="n">
         <v>-1.82</v>
@@ -5234,7 +5234,7 @@
         <v>7976</v>
       </c>
       <c r="B156" t="n">
-        <v>-1.785</v>
+        <v>-1.781666666666666</v>
       </c>
       <c r="C156" t="n">
         <v>-1.72</v>
@@ -5255,7 +5255,7 @@
         <v>-0.6719999999999988</v>
       </c>
       <c r="I156" t="n">
-        <v>-1.042285714285714</v>
+        <v>-1.041809523809523</v>
       </c>
       <c r="J156" t="n">
         <v>-1.04</v>
@@ -5618,7 +5618,7 @@
         <v>8341</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.585000000000001</v>
+        <v>-1.581666666666667</v>
       </c>
       <c r="C168" t="n">
         <v>-0.4199999999999999</v>
@@ -5639,7 +5639,7 @@
         <v>-0.6719999999999988</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.9137142857142854</v>
+        <v>-0.9132380952380947</v>
       </c>
       <c r="J168" t="n">
         <v>-0.91</v>
@@ -6002,7 +6002,7 @@
         <v>8706</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.2850000000000001</v>
+        <v>-0.2816666666666663</v>
       </c>
       <c r="C180" t="n">
         <v>0.3799999999999999</v>
@@ -6023,7 +6023,7 @@
         <v>1.628000000000002</v>
       </c>
       <c r="I180" t="n">
-        <v>0.8262857142857147</v>
+        <v>0.8267619047619054</v>
       </c>
       <c r="J180" t="n">
         <v>0.83</v>
@@ -6386,7 +6386,7 @@
         <v>9072</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.7850000000000001</v>
+        <v>-0.7816666666666663</v>
       </c>
       <c r="C192" t="n">
         <v>0.2800000000000002</v>
@@ -6407,7 +6407,7 @@
         <v>0.6280000000000001</v>
       </c>
       <c r="I192" t="n">
-        <v>0.1120000000000003</v>
+        <v>0.1124761904761909</v>
       </c>
       <c r="J192" t="n">
         <v>0.11</v>
@@ -6770,7 +6770,7 @@
         <v>9437</v>
       </c>
       <c r="B204" t="n">
-        <v>-2.885</v>
+        <v>-2.881666666666666</v>
       </c>
       <c r="C204" t="n">
         <v>-1.52</v>
@@ -6791,7 +6791,7 @@
         <v>-2.071999999999999</v>
       </c>
       <c r="I204" t="n">
-        <v>-1.559428571428571</v>
+        <v>-1.55895238095238</v>
       </c>
       <c r="J204" t="n">
         <v>-1.56</v>
@@ -7154,7 +7154,7 @@
         <v>9802</v>
       </c>
       <c r="B216" t="n">
-        <v>-2.785</v>
+        <v>-2.781666666666666</v>
       </c>
       <c r="C216" t="n">
         <v>-1.42</v>
@@ -7175,7 +7175,7 @@
         <v>-1.571999999999999</v>
       </c>
       <c r="I216" t="n">
-        <v>-1.609428571428571</v>
+        <v>-1.608952380952381</v>
       </c>
       <c r="J216" t="n">
         <v>-1.61</v>
@@ -7538,7 +7538,7 @@
         <v>10167</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.385</v>
+        <v>-1.381666666666666</v>
       </c>
       <c r="C228" t="n">
         <v>-0.9199999999999999</v>
@@ -7559,10 +7559,10 @@
         <v>-2.371999999999999</v>
       </c>
       <c r="I228" t="n">
-        <v>-1.495142857142857</v>
+        <v>-1.494666666666666</v>
       </c>
       <c r="J228" t="n">
-        <v>-1.5</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="229">
@@ -7922,7 +7922,7 @@
         <v>10533</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.08500000000000085</v>
+        <v>-0.081666666666667</v>
       </c>
       <c r="C240" t="n">
         <v>-1.12</v>
@@ -7943,7 +7943,7 @@
         <v>-1.171999999999999</v>
       </c>
       <c r="I240" t="n">
-        <v>-0.9979999999999999</v>
+        <v>-0.9975238095238093</v>
       </c>
       <c r="J240" t="n">
         <v>-1</v>
@@ -8306,7 +8306,7 @@
         <v>10898</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.2850000000000001</v>
+        <v>-0.2816666666666663</v>
       </c>
       <c r="C252" t="n">
         <v>0.4799999999999995</v>
@@ -8327,7 +8327,7 @@
         <v>-1.472</v>
       </c>
       <c r="I252" t="n">
-        <v>-0.1408571428571426</v>
+        <v>-0.140380952380952</v>
       </c>
       <c r="J252" t="n">
         <v>-0.14</v>
@@ -8690,7 +8690,7 @@
         <v>11263</v>
       </c>
       <c r="B264" t="n">
-        <v>-2.785</v>
+        <v>-2.781666666666666</v>
       </c>
       <c r="C264" t="n">
         <v>-2.42</v>
@@ -8711,7 +8711,7 @@
         <v>-2.871999999999999</v>
       </c>
       <c r="I264" t="n">
-        <v>-2.212285714285714</v>
+        <v>-2.211809523809523</v>
       </c>
       <c r="J264" t="n">
         <v>-2.21</v>
@@ -9074,7 +9074,7 @@
         <v>11628</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1150000000000002</v>
+        <v>0.1183333333333341</v>
       </c>
       <c r="C276" t="n">
         <v>-0.01999999999999957</v>
@@ -9095,7 +9095,7 @@
         <v>-0.5719999999999992</v>
       </c>
       <c r="I276" t="n">
-        <v>-0.1408571428571423</v>
+        <v>-0.1403809523809518</v>
       </c>
       <c r="J276" t="n">
         <v>-0.14</v>
@@ -9458,7 +9458,7 @@
         <v>11994</v>
       </c>
       <c r="B288" t="n">
-        <v>-1.685</v>
+        <v>-1.681666666666667</v>
       </c>
       <c r="C288" t="n">
         <v>-1.12</v>
@@ -9479,7 +9479,7 @@
         <v>-1.071999999999999</v>
       </c>
       <c r="I288" t="n">
-        <v>-0.6594285714285709</v>
+        <v>-0.6589523809523803</v>
       </c>
       <c r="J288" t="n">
         <v>-0.66</v>
@@ -9842,7 +9842,7 @@
         <v>12359</v>
       </c>
       <c r="B300" t="n">
-        <v>-1.485000000000001</v>
+        <v>-1.481666666666667</v>
       </c>
       <c r="C300" t="n">
         <v>-2.12</v>
@@ -9863,7 +9863,7 @@
         <v>-1.771999999999999</v>
       </c>
       <c r="I300" t="n">
-        <v>-1.488</v>
+        <v>-1.487523809523809</v>
       </c>
       <c r="J300" t="n">
         <v>-1.49</v>
@@ -10226,7 +10226,7 @@
         <v>12724</v>
       </c>
       <c r="B312" t="n">
-        <v>0.1150000000000002</v>
+        <v>0.1183333333333341</v>
       </c>
       <c r="C312" t="n">
         <v>-0.6200000000000001</v>
@@ -10247,7 +10247,7 @@
         <v>0.3280000000000012</v>
       </c>
       <c r="I312" t="n">
-        <v>0.5120000000000006</v>
+        <v>0.5124761904761911</v>
       </c>
       <c r="J312" t="n">
         <v>0.51</v>
@@ -10610,7 +10610,7 @@
         <v>13089</v>
       </c>
       <c r="B324" t="n">
-        <v>-2.785</v>
+        <v>-2.781666666666666</v>
       </c>
       <c r="C324" t="n">
         <v>-1.52</v>
@@ -10631,7 +10631,7 @@
         <v>-1.871999999999999</v>
       </c>
       <c r="I324" t="n">
-        <v>-2.016571428571428</v>
+        <v>-2.016095238095237</v>
       </c>
       <c r="J324" t="n">
         <v>-2.02</v>
@@ -10994,7 +10994,7 @@
         <v>13455</v>
       </c>
       <c r="B336" t="n">
-        <v>-1.285</v>
+        <v>-1.281666666666666</v>
       </c>
       <c r="C336" t="n">
         <v>0.4799999999999995</v>
@@ -11015,7 +11015,7 @@
         <v>-0.4719999999999995</v>
       </c>
       <c r="I336" t="n">
-        <v>-0.2737142857142851</v>
+        <v>-0.2732380952380946</v>
       </c>
       <c r="J336" t="n">
         <v>-0.27</v>
@@ -11378,7 +11378,7 @@
         <v>13820</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.9850000000000012</v>
+        <v>-0.9816666666666674</v>
       </c>
       <c r="C348" t="n">
         <v>-0.4199999999999999</v>
@@ -11399,7 +11399,7 @@
         <v>-1.171999999999999</v>
       </c>
       <c r="I348" t="n">
-        <v>-0.4594285714285711</v>
+        <v>-0.4589523809523805</v>
       </c>
       <c r="J348" t="n">
         <v>-0.46</v>
@@ -11762,7 +11762,7 @@
         <v>14185</v>
       </c>
       <c r="B360" t="n">
-        <v>0.3149999999999995</v>
+        <v>0.3183333333333334</v>
       </c>
       <c r="C360" t="n">
         <v>0.580000000000001</v>
@@ -11783,7 +11783,7 @@
         <v>-0.3719999999999999</v>
       </c>
       <c r="I360" t="n">
-        <v>0.3262857142857148</v>
+        <v>0.3267619047619053</v>
       </c>
       <c r="J360" t="n">
         <v>0.33</v>
@@ -12146,7 +12146,7 @@
         <v>14550</v>
       </c>
       <c r="B372" t="n">
-        <v>-1.485000000000001</v>
+        <v>-1.481666666666667</v>
       </c>
       <c r="C372" t="n">
         <v>-0.7199999999999998</v>
@@ -12167,7 +12167,7 @@
         <v>0.5280000000000005</v>
       </c>
       <c r="I372" t="n">
-        <v>-0.0594285714285711</v>
+        <v>-0.05895238095238055</v>
       </c>
       <c r="J372" t="n">
         <v>-0.06</v>
@@ -12530,7 +12530,7 @@
         <v>14916</v>
       </c>
       <c r="B384" t="n">
-        <v>-2.685</v>
+        <v>-2.681666666666667</v>
       </c>
       <c r="C384" t="n">
         <v>-1.12</v>
@@ -12551,7 +12551,7 @@
         <v>-0.9719999999999995</v>
       </c>
       <c r="I384" t="n">
-        <v>-1.259428571428571</v>
+        <v>-1.258952380952381</v>
       </c>
       <c r="J384" t="n">
         <v>-1.26</v>
@@ -12914,7 +12914,7 @@
         <v>15281</v>
       </c>
       <c r="B396" t="n">
-        <v>-2.085000000000001</v>
+        <v>-2.081666666666667</v>
       </c>
       <c r="C396" t="n">
         <v>0.3799999999999999</v>
@@ -12935,7 +12935,7 @@
         <v>-1.871999999999999</v>
       </c>
       <c r="I396" t="n">
-        <v>-0.8594285714285711</v>
+        <v>-0.8589523809523805</v>
       </c>
       <c r="J396" t="n">
         <v>-0.86</v>
@@ -13298,7 +13298,7 @@
         <v>15646</v>
       </c>
       <c r="B408" t="n">
-        <v>-1.585000000000001</v>
+        <v>-1.581666666666667</v>
       </c>
       <c r="C408" t="n">
         <v>0.29</v>
@@ -13319,10 +13319,10 @@
         <v>-0.7719999999999994</v>
       </c>
       <c r="I408" t="n">
-        <v>-0.415142857142857</v>
+        <v>-0.4146666666666664</v>
       </c>
       <c r="J408" t="n">
-        <v>-0.42</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="409">
@@ -13682,7 +13682,7 @@
         <v>16011</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.8849999999999998</v>
+        <v>-0.8816666666666659</v>
       </c>
       <c r="C420" t="n">
         <v>-0.8099999999999996</v>
@@ -13703,7 +13703,7 @@
         <v>-0.8119999999999994</v>
       </c>
       <c r="I420" t="n">
-        <v>-0.2779999999999996</v>
+        <v>-0.277523809523809</v>
       </c>
       <c r="J420" t="n">
         <v>-0.28</v>
@@ -14066,7 +14066,7 @@
         <v>16377</v>
       </c>
       <c r="B432" t="n">
-        <v>-1.885</v>
+        <v>-1.881666666666666</v>
       </c>
       <c r="C432" t="n">
         <v>-0.8099999999999996</v>
@@ -14087,7 +14087,7 @@
         <v>-2.111999999999999</v>
       </c>
       <c r="I432" t="n">
-        <v>-1.266571428571428</v>
+        <v>-1.266095238095237</v>
       </c>
       <c r="J432" t="n">
         <v>-1.27</v>
@@ -14450,7 +14450,7 @@
         <v>16742</v>
       </c>
       <c r="B444" t="n">
-        <v>-1.585000000000001</v>
+        <v>-1.581666666666667</v>
       </c>
       <c r="C444" t="n">
         <v>-1.71</v>
@@ -14471,7 +14471,7 @@
         <v>-0.5119999999999987</v>
       </c>
       <c r="I444" t="n">
-        <v>-0.6679999999999995</v>
+        <v>-0.667523809523809</v>
       </c>
       <c r="J444" t="n">
         <v>-0.67</v>
@@ -14834,7 +14834,7 @@
         <v>17107</v>
       </c>
       <c r="B456" t="n">
-        <v>-3.585000000000001</v>
+        <v>-3.581666666666667</v>
       </c>
       <c r="C456" t="n">
         <v>-3.409999999999999</v>
@@ -14855,7 +14855,7 @@
         <v>-3.911999999999999</v>
       </c>
       <c r="I456" t="n">
-        <v>-3.653714285714286</v>
+        <v>-3.653238095238095</v>
       </c>
       <c r="J456" t="n">
         <v>-3.65</v>
@@ -15218,7 +15218,7 @@
         <v>17472</v>
       </c>
       <c r="B468" t="n">
-        <v>-1.885</v>
+        <v>-1.881666666666666</v>
       </c>
       <c r="C468" t="n">
         <v>-2.909999999999999</v>
@@ -15239,7 +15239,7 @@
         <v>0.8780000000000001</v>
       </c>
       <c r="I468" t="n">
-        <v>-0.7265714285714279</v>
+        <v>-0.7260952380952373</v>
       </c>
       <c r="J468" t="n">
         <v>-0.73</v>
@@ -15602,7 +15602,7 @@
         <v>17838</v>
       </c>
       <c r="B480" t="n">
-        <v>-1.485000000000001</v>
+        <v>-1.481666666666667</v>
       </c>
       <c r="C480" t="n">
         <v>-1.01</v>
@@ -15623,7 +15623,7 @@
         <v>-0.5219999999999994</v>
       </c>
       <c r="I480" t="n">
-        <v>-1.069428571428571</v>
+        <v>-1.068952380952381</v>
       </c>
       <c r="J480" t="n">
         <v>-1.07</v>
@@ -15986,7 +15986,7 @@
         <v>18203</v>
       </c>
       <c r="B492" t="n">
-        <v>-1.285</v>
+        <v>-1.281666666666666</v>
       </c>
       <c r="C492" t="n">
         <v>-1.01</v>
@@ -16007,7 +16007,7 @@
         <v>-1.121999999999999</v>
       </c>
       <c r="I492" t="n">
-        <v>-1.126571428571428</v>
+        <v>-1.126095238095238</v>
       </c>
       <c r="J492" t="n">
         <v>-1.13</v>
@@ -16370,7 +16370,7 @@
         <v>18568</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.2850000000000001</v>
+        <v>-0.2816666666666663</v>
       </c>
       <c r="C504" t="n">
         <v>0.1900000000000004</v>
@@ -16391,7 +16391,7 @@
         <v>-0.4219999999999988</v>
       </c>
       <c r="I504" t="n">
-        <v>-0.3837142857142853</v>
+        <v>-0.3832380952380948</v>
       </c>
       <c r="J504" t="n">
         <v>-0.38</v>
@@ -16754,7 +16754,7 @@
         <v>18933</v>
       </c>
       <c r="B516" t="n">
-        <v>-1.025</v>
+        <v>-1.021666666666667</v>
       </c>
       <c r="C516" t="n">
         <v>0.6900000000000004</v>
@@ -16775,7 +16775,7 @@
         <v>-0.4219999999999988</v>
       </c>
       <c r="I516" t="n">
-        <v>-0.5894285714285709</v>
+        <v>-0.5889523809523803</v>
       </c>
       <c r="J516" t="n">
         <v>-0.59</v>
@@ -17138,7 +17138,7 @@
         <v>19299</v>
       </c>
       <c r="B528" t="n">
-        <v>-1.125</v>
+        <v>-1.121666666666666</v>
       </c>
       <c r="C528" t="n">
         <v>1.19</v>
@@ -17159,7 +17159,7 @@
         <v>-0.5219999999999994</v>
       </c>
       <c r="I528" t="n">
-        <v>0.03914285714285765</v>
+        <v>0.03961904761904821</v>
       </c>
       <c r="J528" t="n">
         <v>0.04</v>
@@ -17522,7 +17522,7 @@
         <v>19664</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.125</v>
+        <v>-0.1216666666666661</v>
       </c>
       <c r="C540" t="n">
         <v>0.5900000000000007</v>
@@ -17543,10 +17543,10 @@
         <v>0.3780000000000001</v>
       </c>
       <c r="I540" t="n">
-        <v>0.6248571428571433</v>
+        <v>0.6253333333333339</v>
       </c>
       <c r="J540" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="541">
@@ -17906,7 +17906,7 @@
         <v>20029</v>
       </c>
       <c r="B552" t="n">
-        <v>0.2750000000000004</v>
+        <v>0.2783333333333342</v>
       </c>
       <c r="C552" t="n">
         <v>1.490000000000001</v>
@@ -17927,7 +17927,7 @@
         <v>1.378000000000002</v>
       </c>
       <c r="I552" t="n">
-        <v>1.253428571428573</v>
+        <v>1.253904761904763</v>
       </c>
       <c r="J552" t="n">
         <v>1.25</v>
@@ -18290,7 +18290,7 @@
         <v>20394</v>
       </c>
       <c r="B564" t="n">
-        <v>-1.325000000000001</v>
+        <v>-1.321666666666667</v>
       </c>
       <c r="C564" t="n">
         <v>-1.01</v>
@@ -18311,7 +18311,7 @@
         <v>-0.4219999999999988</v>
       </c>
       <c r="I564" t="n">
-        <v>-0.7608571428571426</v>
+        <v>-0.760380952380952</v>
       </c>
       <c r="J564" t="n">
         <v>-0.76</v>
@@ -18674,7 +18674,7 @@
         <v>20760</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.8250000000000011</v>
+        <v>-0.8216666666666672</v>
       </c>
       <c r="C576" t="n">
         <v>-0.1099999999999994</v>
@@ -18695,7 +18695,7 @@
         <v>0.8780000000000001</v>
       </c>
       <c r="I576" t="n">
-        <v>0.01057142857142893</v>
+        <v>0.01104761904761948</v>
       </c>
       <c r="J576" t="n">
         <v>0.01</v>
@@ -19058,7 +19058,7 @@
         <v>21125</v>
       </c>
       <c r="B588" t="n">
-        <v>-1.025</v>
+        <v>-1.021666666666667</v>
       </c>
       <c r="C588" t="n">
         <v>0.5900000000000007</v>
@@ -19079,7 +19079,7 @@
         <v>-0.621999999999999</v>
       </c>
       <c r="I588" t="n">
-        <v>-0.4465714285714282</v>
+        <v>-0.4460952380952377</v>
       </c>
       <c r="J588" t="n">
         <v>-0.45</v>
@@ -19442,7 +19442,7 @@
         <v>21490</v>
       </c>
       <c r="B600" t="n">
-        <v>-0.4250000000000007</v>
+        <v>-0.4216666666666669</v>
       </c>
       <c r="C600" t="n">
         <v>-0.3099999999999996</v>
@@ -19463,7 +19463,7 @@
         <v>0.07800000000000118</v>
       </c>
       <c r="I600" t="n">
-        <v>-0.08942857142857109</v>
+        <v>-0.08895238095238055</v>
       </c>
       <c r="J600" t="n">
         <v>-0.09</v>
@@ -19826,7 +19826,7 @@
         <v>21855</v>
       </c>
       <c r="B612" t="n">
-        <v>-0.8250000000000011</v>
+        <v>-0.8216666666666672</v>
       </c>
       <c r="C612" t="n">
         <v>-1.21</v>
@@ -19847,7 +19847,7 @@
         <v>-0.3219999999999992</v>
       </c>
       <c r="I612" t="n">
-        <v>-0.4179999999999994</v>
+        <v>-0.4175238095238089</v>
       </c>
       <c r="J612" t="n">
         <v>-0.42</v>
@@ -20210,7 +20210,7 @@
         <v>22221</v>
       </c>
       <c r="B624" t="n">
-        <v>-1.025</v>
+        <v>-1.021666666666667</v>
       </c>
       <c r="C624" t="n">
         <v>-0.1099999999999994</v>
@@ -20231,7 +20231,7 @@
         <v>0.548</v>
       </c>
       <c r="I624" t="n">
-        <v>-0.5365714285714281</v>
+        <v>-0.5360952380952375</v>
       </c>
       <c r="J624" t="n">
         <v>-0.54</v>
@@ -20594,7 +20594,7 @@
         <v>22586</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.8250000000000011</v>
+        <v>-0.8216666666666672</v>
       </c>
       <c r="C636" t="n">
         <v>0.3899999999999997</v>
@@ -20615,7 +20615,7 @@
         <v>-0.8519999999999994</v>
       </c>
       <c r="I636" t="n">
-        <v>-0.05085714285714259</v>
+        <v>-0.05038095238095203</v>
       </c>
       <c r="J636" t="n">
         <v>-0.05</v>
@@ -20978,7 +20978,7 @@
         <v>22951</v>
       </c>
       <c r="B648" t="n">
-        <v>-0.625</v>
+        <v>-0.6216666666666661</v>
       </c>
       <c r="C648" t="n">
         <v>-0.1099999999999994</v>
@@ -20999,10 +20999,10 @@
         <v>0.3480000000000008</v>
       </c>
       <c r="I648" t="n">
-        <v>-0.2651428571428566</v>
+        <v>-0.2646666666666661</v>
       </c>
       <c r="J648" t="n">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="649">
@@ -21362,7 +21362,7 @@
         <v>23316</v>
       </c>
       <c r="B660" t="n">
-        <v>-1.825000000000001</v>
+        <v>-1.821666666666667</v>
       </c>
       <c r="C660" t="n">
         <v>-1.21</v>
@@ -21383,7 +21383,7 @@
         <v>-1.951999999999999</v>
       </c>
       <c r="I660" t="n">
-        <v>-1.622285714285714</v>
+        <v>-1.621809523809523</v>
       </c>
       <c r="J660" t="n">
         <v>-1.62</v>
@@ -21746,7 +21746,7 @@
         <v>23682</v>
       </c>
       <c r="B672" t="n">
-        <v>-1.425000000000001</v>
+        <v>-1.421666666666667</v>
       </c>
       <c r="C672" t="n">
         <v>-0.009999999999999787</v>
@@ -21767,7 +21767,7 @@
         <v>-0.2519999999999989</v>
       </c>
       <c r="I672" t="n">
-        <v>-0.8179999999999995</v>
+        <v>-0.817523809523809</v>
       </c>
       <c r="J672" t="n">
         <v>-0.82</v>
@@ -22130,7 +22130,7 @@
         <v>24047</v>
       </c>
       <c r="B684" t="n">
-        <v>-1.525</v>
+        <v>-1.521666666666667</v>
       </c>
       <c r="C684" t="n">
         <v>-0.21</v>
@@ -22151,7 +22151,7 @@
         <v>-0.5519999999999996</v>
       </c>
       <c r="I684" t="n">
-        <v>-0.8179999999999997</v>
+        <v>-0.8175238095238092</v>
       </c>
       <c r="J684" t="n">
         <v>-0.82</v>
@@ -22514,7 +22514,7 @@
         <v>24412</v>
       </c>
       <c r="B696" t="n">
-        <v>-1.125</v>
+        <v>-1.121666666666666</v>
       </c>
       <c r="C696" t="n">
         <v>-1.71</v>
@@ -22535,7 +22535,7 @@
         <v>-0.5519999999999996</v>
       </c>
       <c r="I696" t="n">
-        <v>-1.046571428571428</v>
+        <v>-1.046095238095238</v>
       </c>
       <c r="J696" t="n">
         <v>-1.05</v>
@@ -22898,7 +22898,7 @@
         <v>24777</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.02500000000000036</v>
+        <v>-0.0216666666666665</v>
       </c>
       <c r="C708" t="n">
         <v>0.3899999999999997</v>
@@ -22919,7 +22919,7 @@
         <v>-2.052</v>
       </c>
       <c r="I708" t="n">
-        <v>-0.8208571428571425</v>
+        <v>-0.820380952380952</v>
       </c>
       <c r="J708" t="n">
         <v>-0.82</v>
@@ -23282,7 +23282,7 @@
         <v>25143</v>
       </c>
       <c r="B720" t="n">
-        <v>-2.025</v>
+        <v>-2.021666666666667</v>
       </c>
       <c r="C720" t="n">
         <v>-1.01</v>
@@ -23303,10 +23303,10 @@
         <v>-0.5519999999999996</v>
       </c>
       <c r="I720" t="n">
-        <v>-1.335142857142857</v>
+        <v>-1.334666666666666</v>
       </c>
       <c r="J720" t="n">
-        <v>-1.34</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="721">
@@ -23666,7 +23666,7 @@
         <v>25508</v>
       </c>
       <c r="B732" t="n">
-        <v>-0.3250000000000011</v>
+        <v>-0.3216666666666672</v>
       </c>
       <c r="C732" t="n">
         <v>-0.3099999999999996</v>
@@ -23687,7 +23687,7 @@
         <v>1.248000000000001</v>
       </c>
       <c r="I732" t="n">
-        <v>0.393428571428572</v>
+        <v>0.3939047619047625</v>
       </c>
       <c r="J732" t="n">
         <v>0.39</v>
@@ -24050,7 +24050,7 @@
         <v>25873</v>
       </c>
       <c r="B744" t="n">
-        <v>-0.5250000000000004</v>
+        <v>-0.5216666666666665</v>
       </c>
       <c r="C744" t="n">
         <v>0.08999999999999986</v>
@@ -24071,7 +24071,7 @@
         <v>0.4480000000000004</v>
       </c>
       <c r="I744" t="n">
-        <v>0.07914285714285756</v>
+        <v>0.07961904761904812</v>
       </c>
       <c r="J744" t="n">
         <v>0.08</v>
@@ -24434,7 +24434,7 @@
         <v>26238</v>
       </c>
       <c r="B756" t="n">
-        <v>-0.7249999999999996</v>
+        <v>-0.7216666666666658</v>
       </c>
       <c r="C756" t="n">
         <v>-0.3099999999999996</v>
@@ -24455,7 +24455,7 @@
         <v>0.1480000000000015</v>
       </c>
       <c r="I756" t="n">
-        <v>-0.3208571428571422</v>
+        <v>-0.3203809523809516</v>
       </c>
       <c r="J756" t="n">
         <v>-0.32</v>
@@ -24818,7 +24818,7 @@
         <v>26604</v>
       </c>
       <c r="B768" t="n">
-        <v>1.475</v>
+        <v>1.478333333333333</v>
       </c>
       <c r="C768" t="n">
         <v>1.69</v>
@@ -24839,7 +24839,7 @@
         <v>0.9480000000000004</v>
       </c>
       <c r="I768" t="n">
-        <v>1.379142857142858</v>
+        <v>1.379619047619048</v>
       </c>
       <c r="J768" t="n">
         <v>1.38</v>
@@ -25202,7 +25202,7 @@
         <v>26969</v>
       </c>
       <c r="B780" t="n">
-        <v>0.5749999999999993</v>
+        <v>0.5783333333333331</v>
       </c>
       <c r="C780" t="n">
         <v>1.490000000000001</v>
@@ -25223,7 +25223,7 @@
         <v>-0.6519999999999992</v>
       </c>
       <c r="I780" t="n">
-        <v>0.5362857142857146</v>
+        <v>0.5367619047619051</v>
       </c>
       <c r="J780" t="n">
         <v>0.54</v>
@@ -25586,7 +25586,7 @@
         <v>27334</v>
       </c>
       <c r="B792" t="n">
-        <v>0.6749999999999989</v>
+        <v>0.6783333333333328</v>
       </c>
       <c r="C792" t="n">
         <v>0.8899999999999997</v>
@@ -25607,7 +25607,7 @@
         <v>0.6480000000000015</v>
       </c>
       <c r="I792" t="n">
-        <v>0.6220000000000006</v>
+        <v>0.6224761904761911</v>
       </c>
       <c r="J792" t="n">
         <v>0.62</v>
@@ -25970,7 +25970,7 @@
         <v>27699</v>
       </c>
       <c r="B804" t="n">
-        <v>-0.8250000000000011</v>
+        <v>-0.8216666666666672</v>
       </c>
       <c r="C804" t="n">
         <v>-0.5099999999999998</v>
@@ -25991,10 +25991,10 @@
         <v>-0.9519999999999991</v>
       </c>
       <c r="I804" t="n">
-        <v>-0.8351428571428567</v>
+        <v>-0.8346666666666662</v>
       </c>
       <c r="J804" t="n">
-        <v>-0.84</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="805">
@@ -26354,7 +26354,7 @@
         <v>28065</v>
       </c>
       <c r="B816" t="n">
-        <v>-1.245000000000001</v>
+        <v>-1.241666666666667</v>
       </c>
       <c r="C816" t="n">
         <v>-1.409999999999999</v>
@@ -26375,7 +26375,7 @@
         <v>-1.351999999999999</v>
       </c>
       <c r="I816" t="n">
-        <v>-1.532285714285714</v>
+        <v>-1.531809523809524</v>
       </c>
       <c r="J816" t="n">
         <v>-1.53</v>
@@ -26738,7 +26738,7 @@
         <v>28430</v>
       </c>
       <c r="B828" t="n">
-        <v>-1.145000000000001</v>
+        <v>-1.141666666666667</v>
       </c>
       <c r="C828" t="n">
         <v>-0.8099999999999996</v>
@@ -26759,7 +26759,7 @@
         <v>-1.151999999999999</v>
       </c>
       <c r="I828" t="n">
-        <v>-1.089428571428571</v>
+        <v>-1.088952380952381</v>
       </c>
       <c r="J828" t="n">
         <v>-1.09</v>
@@ -27122,7 +27122,7 @@
         <v>28795</v>
       </c>
       <c r="B840" t="n">
-        <v>-0.245000000000001</v>
+        <v>-0.2416666666666671</v>
       </c>
       <c r="C840" t="n">
         <v>-0.8099999999999996</v>
@@ -27143,7 +27143,7 @@
         <v>-0.1519999999999992</v>
       </c>
       <c r="I840" t="n">
-        <v>-0.3608571428571427</v>
+        <v>-0.3603809523809521</v>
       </c>
       <c r="J840" t="n">
         <v>-0.36</v>
@@ -27506,7 +27506,7 @@
         <v>29160</v>
       </c>
       <c r="B852" t="n">
-        <v>0.254999999999999</v>
+        <v>0.2583333333333329</v>
       </c>
       <c r="C852" t="n">
         <v>0.4900000000000011</v>
@@ -27527,7 +27527,7 @@
         <v>0.6480000000000015</v>
       </c>
       <c r="I852" t="n">
-        <v>0.710571428571429</v>
+        <v>0.7110476190476195</v>
       </c>
       <c r="J852" t="n">
         <v>0.71</v>
@@ -27890,7 +27890,7 @@
         <v>29526</v>
       </c>
       <c r="B864" t="n">
-        <v>-0.04499999999999993</v>
+        <v>-0.04166666666666607</v>
       </c>
       <c r="C864" t="n">
         <v>-0.71</v>
@@ -27911,7 +27911,7 @@
         <v>-2.052</v>
       </c>
       <c r="I864" t="n">
-        <v>-1.060857142857142</v>
+        <v>-1.060380952380952</v>
       </c>
       <c r="J864" t="n">
         <v>-1.06</v>
@@ -28274,7 +28274,7 @@
         <v>29891</v>
       </c>
       <c r="B876" t="n">
-        <v>0.254999999999999</v>
+        <v>0.2583333333333329</v>
       </c>
       <c r="C876" t="n">
         <v>-0.009999999999999787</v>
@@ -28295,7 +28295,7 @@
         <v>0.9480000000000004</v>
       </c>
       <c r="I876" t="n">
-        <v>0.6534285714285717</v>
+        <v>0.6539047619047622</v>
       </c>
       <c r="J876" t="n">
         <v>0.65</v>
@@ -28658,7 +28658,7 @@
         <v>30256</v>
       </c>
       <c r="B888" t="n">
-        <v>1.154999999999999</v>
+        <v>1.158333333333333</v>
       </c>
       <c r="C888" t="n">
         <v>2.39</v>
@@ -28679,7 +28679,7 @@
         <v>-0.5519999999999996</v>
       </c>
       <c r="I888" t="n">
-        <v>0.6962857142857147</v>
+        <v>0.6967619047619052</v>
       </c>
       <c r="J888" t="n">
         <v>0.7</v>
@@ -29042,7 +29042,7 @@
         <v>30621</v>
       </c>
       <c r="B900" t="n">
-        <v>-0.9450000000000003</v>
+        <v>-0.9416666666666664</v>
       </c>
       <c r="C900" t="n">
         <v>-0.5099999999999998</v>
@@ -29063,7 +29063,7 @@
         <v>0.2480000000000011</v>
       </c>
       <c r="I900" t="n">
-        <v>-0.1894285714285708</v>
+        <v>-0.1889523809523802</v>
       </c>
       <c r="J900" t="n">
         <v>-0.19</v>
@@ -29426,7 +29426,7 @@
         <v>30987</v>
       </c>
       <c r="B912" t="n">
-        <v>1.154999999999999</v>
+        <v>1.158333333333333</v>
       </c>
       <c r="C912" t="n">
         <v>0.6900000000000004</v>
@@ -29447,10 +29447,10 @@
         <v>1.248000000000001</v>
       </c>
       <c r="I912" t="n">
-        <v>1.124857142857143</v>
+        <v>1.125333333333334</v>
       </c>
       <c r="J912" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="913">
@@ -29810,7 +29810,7 @@
         <v>31352</v>
       </c>
       <c r="B924" t="n">
-        <v>-0.4450000000000003</v>
+        <v>-0.4416666666666664</v>
       </c>
       <c r="C924" t="n">
         <v>-0.71</v>
@@ -29831,7 +29831,7 @@
         <v>0.2480000000000011</v>
       </c>
       <c r="I924" t="n">
-        <v>-0.03228571428571377</v>
+        <v>-0.03180952380952323</v>
       </c>
       <c r="J924" t="n">
         <v>-0.03</v>
@@ -30194,7 +30194,7 @@
         <v>31717</v>
       </c>
       <c r="B936" t="n">
-        <v>0.1549999999999994</v>
+        <v>0.1583333333333332</v>
       </c>
       <c r="C936" t="n">
         <v>-0.5099999999999998</v>
@@ -30215,7 +30215,7 @@
         <v>0.8480000000000008</v>
       </c>
       <c r="I936" t="n">
-        <v>0.1391428571428577</v>
+        <v>0.1396190476190482</v>
       </c>
       <c r="J936" t="n">
         <v>0.14</v>
@@ -30578,7 +30578,7 @@
         <v>32082</v>
       </c>
       <c r="B948" t="n">
-        <v>0.1549999999999994</v>
+        <v>0.1583333333333332</v>
       </c>
       <c r="C948" t="n">
         <v>0.79</v>
@@ -30599,7 +30599,7 @@
         <v>0.7480000000000011</v>
       </c>
       <c r="I948" t="n">
-        <v>0.4891428571428577</v>
+        <v>0.4896190476190482</v>
       </c>
       <c r="J948" t="n">
         <v>0.49</v>
@@ -30962,7 +30962,7 @@
         <v>32448</v>
       </c>
       <c r="B960" t="n">
-        <v>1.455</v>
+        <v>1.458333333333334</v>
       </c>
       <c r="C960" t="n">
         <v>0.8899999999999997</v>
@@ -30983,7 +30983,7 @@
         <v>0.548</v>
       </c>
       <c r="I960" t="n">
-        <v>0.960571428571429</v>
+        <v>0.9610476190476195</v>
       </c>
       <c r="J960" t="n">
         <v>0.96</v>
@@ -31346,7 +31346,7 @@
         <v>32813</v>
       </c>
       <c r="B972" t="n">
-        <v>0.8549999999999986</v>
+        <v>0.8583333333333325</v>
       </c>
       <c r="C972" t="n">
         <v>1.69</v>
@@ -31367,7 +31367,7 @@
         <v>0.4480000000000004</v>
       </c>
       <c r="I972" t="n">
-        <v>0.8320000000000001</v>
+        <v>0.8324761904761907</v>
       </c>
       <c r="J972" t="n">
         <v>0.83</v>
@@ -31730,7 +31730,7 @@
         <v>33178</v>
       </c>
       <c r="B984" t="n">
-        <v>0.754999999999999</v>
+        <v>0.7583333333333329</v>
       </c>
       <c r="C984" t="n">
         <v>-0.009999999999999787</v>
@@ -31751,7 +31751,7 @@
         <v>-0.3519999999999985</v>
       </c>
       <c r="I984" t="n">
-        <v>0.2891428571428575</v>
+        <v>0.2896190476190481</v>
       </c>
       <c r="J984" t="n">
         <v>0.29</v>
@@ -32114,7 +32114,7 @@
         <v>33543</v>
       </c>
       <c r="B996" t="n">
-        <v>-0.8450000000000006</v>
+        <v>-0.8416666666666668</v>
       </c>
       <c r="C996" t="n">
         <v>-1.58</v>
@@ -32135,7 +32135,7 @@
         <v>-1.251999999999999</v>
       </c>
       <c r="I996" t="n">
-        <v>-1.363714285714285</v>
+        <v>-1.363238095238095</v>
       </c>
       <c r="J996" t="n">
         <v>-1.36</v>
@@ -32498,7 +32498,7 @@
         <v>33909</v>
       </c>
       <c r="B1008" t="n">
-        <v>0.9550000000000001</v>
+        <v>0.9583333333333339</v>
       </c>
       <c r="C1008" t="n">
         <v>1.12</v>
@@ -32519,7 +32519,7 @@
         <v>0.9480000000000004</v>
       </c>
       <c r="I1008" t="n">
-        <v>0.8505714285714291</v>
+        <v>0.8510476190476196</v>
       </c>
       <c r="J1008" t="n">
         <v>0.85</v>
@@ -32882,7 +32882,7 @@
         <v>34274</v>
       </c>
       <c r="B1020" t="n">
-        <v>-1.245000000000001</v>
+        <v>-1.241666666666667</v>
       </c>
       <c r="C1020" t="n">
         <v>-1.78</v>
@@ -32903,7 +32903,7 @@
         <v>-0.7519999999999989</v>
       </c>
       <c r="I1020" t="n">
-        <v>-1.378</v>
+        <v>-1.377523809523809</v>
       </c>
       <c r="J1020" t="n">
         <v>-1.38</v>
@@ -33266,7 +33266,7 @@
         <v>34639</v>
       </c>
       <c r="B1032" t="n">
-        <v>-0.4450000000000003</v>
+        <v>-0.4416666666666664</v>
       </c>
       <c r="C1032" t="n">
         <v>-0.1799999999999997</v>
@@ -33287,7 +33287,7 @@
         <v>-0.7519999999999989</v>
       </c>
       <c r="I1032" t="n">
-        <v>-0.2494285714285712</v>
+        <v>-0.2489523809523807</v>
       </c>
       <c r="J1032" t="n">
         <v>-0.25</v>
@@ -33650,7 +33650,7 @@
         <v>35004</v>
       </c>
       <c r="B1044" t="n">
-        <v>-0.8450000000000006</v>
+        <v>-0.8416666666666668</v>
       </c>
       <c r="C1044" t="n">
         <v>-1.08</v>
@@ -33671,7 +33671,7 @@
         <v>-0.7519999999999989</v>
       </c>
       <c r="I1044" t="n">
-        <v>-0.749428571428571</v>
+        <v>-0.7489523809523805</v>
       </c>
       <c r="J1044" t="n">
         <v>-0.75</v>
@@ -34034,7 +34034,7 @@
         <v>35370</v>
       </c>
       <c r="B1056" t="n">
-        <v>-0.4450000000000003</v>
+        <v>-0.4416666666666664</v>
       </c>
       <c r="C1056" t="n">
         <v>-0.8799999999999999</v>
@@ -34055,7 +34055,7 @@
         <v>-0.8519999999999994</v>
       </c>
       <c r="I1056" t="n">
-        <v>-1.020857142857142</v>
+        <v>-1.020380952380952</v>
       </c>
       <c r="J1056" t="n">
         <v>-1.02</v>
@@ -34418,7 +34418,7 @@
         <v>35735</v>
       </c>
       <c r="B1068" t="n">
-        <v>1.154999999999999</v>
+        <v>1.158333333333333</v>
       </c>
       <c r="C1068" t="n">
         <v>0.4200000000000008</v>
@@ -34439,10 +34439,10 @@
         <v>-0.6119999999999992</v>
       </c>
       <c r="I1068" t="n">
-        <v>-0.0551428571428564</v>
+        <v>-0.05466666666666585</v>
       </c>
       <c r="J1068" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="1069">
@@ -34802,7 +34802,7 @@
         <v>36100</v>
       </c>
       <c r="B1080" t="n">
-        <v>0.3049999999999997</v>
+        <v>0.3083333333333336</v>
       </c>
       <c r="C1080" t="n">
         <v>-0.4799999999999995</v>
@@ -34823,7 +34823,7 @@
         <v>0.4880000000000013</v>
       </c>
       <c r="I1080" t="n">
-        <v>0.0662857142857151</v>
+        <v>0.06676190476190566</v>
       </c>
       <c r="J1080" t="n">
         <v>0.07000000000000001</v>
@@ -35186,7 +35186,7 @@
         <v>36465</v>
       </c>
       <c r="B1092" t="n">
-        <v>1.004999999999999</v>
+        <v>1.008333333333333</v>
       </c>
       <c r="C1092" t="n">
         <v>2.12</v>
@@ -35207,7 +35207,7 @@
         <v>0.588000000000001</v>
       </c>
       <c r="I1092" t="n">
-        <v>1.280571428571429</v>
+        <v>1.281047619047619</v>
       </c>
       <c r="J1092" t="n">
         <v>1.28</v>
@@ -35570,7 +35570,7 @@
         <v>36831</v>
       </c>
       <c r="B1104" t="n">
-        <v>-1.195</v>
+        <v>-1.191666666666666</v>
       </c>
       <c r="C1104" t="n">
         <v>-1.88</v>
@@ -35591,7 +35591,7 @@
         <v>-2.111999999999999</v>
       </c>
       <c r="I1104" t="n">
-        <v>-1.823714285714285</v>
+        <v>-1.823238095238095</v>
       </c>
       <c r="J1104" t="n">
         <v>-1.82</v>
@@ -35954,7 +35954,7 @@
         <v>37196</v>
       </c>
       <c r="B1116" t="n">
-        <v>0.4049999999999994</v>
+        <v>0.4083333333333332</v>
       </c>
       <c r="C1116" t="n">
         <v>1.319999999999999</v>
@@ -35975,7 +35975,7 @@
         <v>0.4880000000000013</v>
       </c>
       <c r="I1116" t="n">
-        <v>0.8762857142857147</v>
+        <v>0.8767619047619053</v>
       </c>
       <c r="J1116" t="n">
         <v>0.88</v>
@@ -36338,7 +36338,7 @@
         <v>37561</v>
       </c>
       <c r="B1128" t="n">
-        <v>-1.195</v>
+        <v>-1.191666666666666</v>
       </c>
       <c r="C1128" t="n">
         <v>0.02000000000000046</v>
@@ -36359,7 +36359,7 @@
         <v>-0.5119999999999987</v>
       </c>
       <c r="I1128" t="n">
-        <v>-0.6522857142857138</v>
+        <v>-0.6518095238095232</v>
       </c>
       <c r="J1128" t="n">
         <v>-0.65</v>
@@ -36722,7 +36722,7 @@
         <v>37926</v>
       </c>
       <c r="B1140" t="n">
-        <v>-0.1950000000000003</v>
+        <v>-0.1916666666666664</v>
       </c>
       <c r="C1140" t="n">
         <v>-0.9799999999999995</v>
@@ -36743,10 +36743,10 @@
         <v>-0.911999999999999</v>
       </c>
       <c r="I1140" t="n">
-        <v>-0.7951428571428567</v>
+        <v>-0.7946666666666662</v>
       </c>
       <c r="J1140" t="n">
-        <v>-0.8</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="1141">
@@ -37106,7 +37106,7 @@
         <v>38292</v>
       </c>
       <c r="B1152" t="n">
-        <v>-0.495000000000001</v>
+        <v>-0.4916666666666671</v>
       </c>
       <c r="C1152" t="n">
         <v>0.7199999999999998</v>
@@ -37127,10 +37127,10 @@
         <v>0.588000000000001</v>
       </c>
       <c r="I1152" t="n">
-        <v>0.5048571428571431</v>
+        <v>0.5053333333333336</v>
       </c>
       <c r="J1152" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="1153">
@@ -37490,7 +37490,7 @@
         <v>38657</v>
       </c>
       <c r="B1164" t="n">
-        <v>-0.09500000000000064</v>
+        <v>-0.09166666666666679</v>
       </c>
       <c r="C1164" t="n">
         <v>-0.8799999999999999</v>
@@ -37511,10 +37511,10 @@
         <v>0.588000000000001</v>
       </c>
       <c r="I1164" t="n">
-        <v>-0.1351428571428567</v>
+        <v>-0.1346666666666662</v>
       </c>
       <c r="J1164" t="n">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="1165">
@@ -37874,7 +37874,7 @@
         <v>39022</v>
       </c>
       <c r="B1176" t="n">
-        <v>0.3049999999999997</v>
+        <v>0.3083333333333336</v>
       </c>
       <c r="C1176" t="n">
         <v>0.8199999999999994</v>
@@ -37895,7 +37895,7 @@
         <v>-0.6119999999999992</v>
       </c>
       <c r="I1176" t="n">
-        <v>0.007714285714286133</v>
+        <v>0.008190476190476683</v>
       </c>
       <c r="J1176" t="n">
         <v>0.01</v>
@@ -38258,7 +38258,7 @@
         <v>39387</v>
       </c>
       <c r="B1188" t="n">
-        <v>-0.5950000000000006</v>
+        <v>-0.5916666666666668</v>
       </c>
       <c r="C1188" t="n">
         <v>-2.18</v>
@@ -38279,7 +38279,7 @@
         <v>-0.01199999999999868</v>
       </c>
       <c r="I1188" t="n">
-        <v>-0.6922857142857139</v>
+        <v>-0.6918095238095233</v>
       </c>
       <c r="J1188" t="n">
         <v>-0.6899999999999999</v>
@@ -38642,7 +38642,7 @@
         <v>39753</v>
       </c>
       <c r="B1200" t="n">
-        <v>0.1049999999999986</v>
+        <v>0.1083333333333325</v>
       </c>
       <c r="C1200" t="n">
         <v>1.02</v>
@@ -38663,10 +38663,10 @@
         <v>-0.411999999999999</v>
       </c>
       <c r="I1200" t="n">
-        <v>0.2648571428571428</v>
+        <v>0.2653333333333334</v>
       </c>
       <c r="J1200" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="1201">
@@ -39026,7 +39026,7 @@
         <v>40118</v>
       </c>
       <c r="B1212" t="n">
-        <v>0.4049999999999994</v>
+        <v>0.4083333333333332</v>
       </c>
       <c r="C1212" t="n">
         <v>-0.4799999999999995</v>
@@ -39047,7 +39047,7 @@
         <v>-0.2119999999999997</v>
       </c>
       <c r="I1212" t="n">
-        <v>-0.1065714285714282</v>
+        <v>-0.1060952380952377</v>
       </c>
       <c r="J1212" t="n">
         <v>-0.11</v>
@@ -39410,7 +39410,7 @@
         <v>40483</v>
       </c>
       <c r="B1224" t="n">
-        <v>0.3049999999999997</v>
+        <v>0.3083333333333336</v>
       </c>
       <c r="C1224" t="n">
         <v>-0.1799999999999997</v>
@@ -39431,7 +39431,7 @@
         <v>1.888</v>
       </c>
       <c r="I1224" t="n">
-        <v>0.9362857142857146</v>
+        <v>0.9367619047619051</v>
       </c>
       <c r="J1224" t="n">
         <v>0.9399999999999999</v>
@@ -39794,7 +39794,7 @@
         <v>40848</v>
       </c>
       <c r="B1236" t="n">
-        <v>0.3049999999999997</v>
+        <v>0.3083333333333336</v>
       </c>
       <c r="C1236" t="n">
         <v>-0.1799999999999997</v>
@@ -39815,10 +39815,10 @@
         <v>-0.3119999999999994</v>
       </c>
       <c r="I1236" t="n">
-        <v>-0.03514285714285657</v>
+        <v>-0.03466666666666602</v>
       </c>
       <c r="J1236" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="1237">
@@ -40178,7 +40178,7 @@
         <v>41214</v>
       </c>
       <c r="B1248" t="n">
-        <v>-0.3950000000000014</v>
+        <v>-0.3916666666666675</v>
       </c>
       <c r="C1248" t="n">
         <v>-1.98</v>
@@ -40199,7 +40199,7 @@
         <v>-0.7119999999999989</v>
       </c>
       <c r="I1248" t="n">
-        <v>-1.092285714285714</v>
+        <v>-1.091809523809523</v>
       </c>
       <c r="J1248" t="n">
         <v>-1.09</v>
@@ -40562,7 +40562,7 @@
         <v>41579</v>
       </c>
       <c r="B1260" t="n">
-        <v>0.7050000000000001</v>
+        <v>0.7083333333333339</v>
       </c>
       <c r="C1260" t="n">
         <v>1.62</v>
@@ -40583,7 +40583,7 @@
         <v>1.288</v>
       </c>
       <c r="I1260" t="n">
-        <v>1.407714285714286</v>
+        <v>1.408190476190477</v>
       </c>
       <c r="J1260" t="n">
         <v>1.41</v>
@@ -40946,7 +40946,7 @@
         <v>41944</v>
       </c>
       <c r="B1272" t="n">
-        <v>-0.6950000000000003</v>
+        <v>-0.6916666666666664</v>
       </c>
       <c r="C1272" t="n">
         <v>0.4200000000000008</v>
@@ -40967,7 +40967,7 @@
         <v>-1.211999999999999</v>
       </c>
       <c r="I1272" t="n">
-        <v>-0.6065714285714281</v>
+        <v>-0.6060952380952376</v>
       </c>
       <c r="J1272" t="n">
         <v>-0.61</v>
@@ -41330,7 +41330,7 @@
         <v>42309</v>
       </c>
       <c r="B1284" t="n">
-        <v>-0.2949999999999999</v>
+        <v>-0.2916666666666661</v>
       </c>
       <c r="C1284" t="n">
         <v>-0.8799999999999999</v>
@@ -41351,7 +41351,7 @@
         <v>-0.911999999999999</v>
       </c>
       <c r="I1284" t="n">
-        <v>-0.3922857142857137</v>
+        <v>-0.3918095238095232</v>
       </c>
       <c r="J1284" t="n">
         <v>-0.39</v>
@@ -41714,7 +41714,7 @@
         <v>42675</v>
       </c>
       <c r="B1296" t="n">
-        <v>0.504999999999999</v>
+        <v>0.5083333333333329</v>
       </c>
       <c r="C1296" t="n">
         <v>0.8199999999999994</v>
@@ -41735,7 +41735,7 @@
         <v>0.7880000000000003</v>
       </c>
       <c r="I1296" t="n">
-        <v>0.7220000000000002</v>
+        <v>0.7224761904761907</v>
       </c>
       <c r="J1296" t="n">
         <v>0.72</v>
@@ -42098,7 +42098,7 @@
         <v>43040</v>
       </c>
       <c r="B1308" t="n">
-        <v>0.3049999999999997</v>
+        <v>0.3083333333333336</v>
       </c>
       <c r="C1308" t="n">
         <v>0.02000000000000046</v>
@@ -42119,7 +42119,7 @@
         <v>1.588000000000001</v>
       </c>
       <c r="I1308" t="n">
-        <v>0.9362857142857149</v>
+        <v>0.9367619047619055</v>
       </c>
       <c r="J1308" t="n">
         <v>0.9399999999999999</v>
@@ -42482,7 +42482,7 @@
         <v>43405</v>
       </c>
       <c r="B1320" t="n">
-        <v>-0.09500000000000064</v>
+        <v>-0.09166666666666679</v>
       </c>
       <c r="C1320" t="n">
         <v>1.62</v>
@@ -42503,7 +42503,7 @@
         <v>0.9880000000000013</v>
       </c>
       <c r="I1320" t="n">
-        <v>0.5934285714285717</v>
+        <v>0.5939047619047624</v>
       </c>
       <c r="J1320" t="n">
         <v>0.59</v>
@@ -42864,7 +42864,7 @@
         <v>43770</v>
       </c>
       <c r="B1332" t="n">
-        <v>1.004999999999999</v>
+        <v>1.008333333333333</v>
       </c>
       <c r="C1332" t="n">
         <v>2.02</v>
@@ -42885,7 +42885,7 @@
         <v>1.688000000000001</v>
       </c>
       <c r="I1332" t="n">
-        <v>1.522</v>
+        <v>1.522476190476191</v>
       </c>
       <c r="J1332" t="n">
         <v>1.52</v>
@@ -43248,7 +43248,7 @@
         <v>44136</v>
       </c>
       <c r="B1344" t="n">
-        <v>1.305</v>
+        <v>1.208333333333334</v>
       </c>
       <c r="C1344" t="n">
         <v>1.519999999999999</v>
@@ -43269,10 +43269,10 @@
         <v>0.9880000000000013</v>
       </c>
       <c r="I1344" t="n">
-        <v>1.179142857142857</v>
+        <v>1.165333333333334</v>
       </c>
       <c r="J1344" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="1345">
@@ -43571,7 +43571,7 @@
         <v>-0.04933333333333678</v>
       </c>
       <c r="C1354" t="n">
-        <v>0.9800000000000013</v>
+        <v>0.8800000000000008</v>
       </c>
       <c r="D1354" t="n">
         <v>-0.1173333333333328</v>
@@ -43589,10 +43589,10 @@
         <v>-0.1086666666666671</v>
       </c>
       <c r="I1354" t="n">
-        <v>0.0418571428571425</v>
+        <v>0.02757142857142814</v>
       </c>
       <c r="J1354" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="1355">
@@ -43632,7 +43632,7 @@
         <v>44501</v>
       </c>
       <c r="B1356" t="n">
-        <v>1.605</v>
+        <v>1.608333333333334</v>
       </c>
       <c r="C1356" t="n">
         <v>2.72</v>
@@ -43653,7 +43653,7 @@
         <v>1.688000000000001</v>
       </c>
       <c r="I1356" t="n">
-        <v>2.007714285714286</v>
+        <v>2.008190476190477</v>
       </c>
       <c r="J1356" t="n">
         <v>2.01</v>
@@ -44016,7 +44016,7 @@
         <v>44866</v>
       </c>
       <c r="B1368" t="n">
-        <v>1.205</v>
+        <v>1.208333333333334</v>
       </c>
       <c r="C1368" t="n">
         <v>3.12</v>
@@ -44037,7 +44037,7 @@
         <v>1.688000000000001</v>
       </c>
       <c r="I1368" t="n">
-        <v>1.979142857142858</v>
+        <v>1.979619047619048</v>
       </c>
       <c r="J1368" t="n">
         <v>1.98</v>
@@ -44182,7 +44182,7 @@
         <v>1.976666666666668</v>
       </c>
       <c r="D1373" t="n">
-        <v>0.7033333333333331</v>
+        <v>0.6033333333333335</v>
       </c>
       <c r="E1373" t="n">
         <v>1.192999999999998</v>
@@ -44197,10 +44197,10 @@
         <v>1.306000000000003</v>
       </c>
       <c r="I1373" t="n">
-        <v>1.380476190476191</v>
+        <v>1.366190476190477</v>
       </c>
       <c r="J1373" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="1374">
@@ -44400,7 +44400,7 @@
         <v>45231</v>
       </c>
       <c r="B1380" t="n">
-        <v>0.4049999999999994</v>
+        <v>0.4083333333333332</v>
       </c>
       <c r="C1380" t="n">
         <v>0.8199999999999994</v>
@@ -44421,7 +44421,7 @@
         <v>0.3880000000000017</v>
       </c>
       <c r="I1380" t="n">
-        <v>0.4791428571428576</v>
+        <v>0.4796190476190482</v>
       </c>
       <c r="J1380" t="n">
         <v>0.48</v>
@@ -44559,15 +44559,47 @@
       <c r="A1385" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="B1385" t="inlineStr"/>
-      <c r="C1385" t="inlineStr"/>
-      <c r="D1385" t="inlineStr"/>
-      <c r="E1385" t="inlineStr"/>
-      <c r="F1385" t="inlineStr"/>
-      <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr"/>
-      <c r="I1385" t="inlineStr"/>
-      <c r="J1385" t="inlineStr"/>
+      <c r="B1385" t="n">
+        <v>0.6533333333333342</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>-0.4233333333333311</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>0.2033333333333331</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>0.8929999999999989</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>0.5400000000000009</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>0.3910000000000009</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>0.1060000000000034</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>0.3376190476190487</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B1386" t="inlineStr"/>
+      <c r="C1386" t="inlineStr"/>
+      <c r="D1386" t="inlineStr"/>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
+      <c r="G1386" t="inlineStr"/>
+      <c r="H1386" t="inlineStr"/>
+      <c r="I1386" t="inlineStr"/>
+      <c r="J1386" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1386"/>
+  <dimension ref="A1:J1387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44591,15 +44591,47 @@
       <c r="A1386" s="2" t="n">
         <v>45413</v>
       </c>
-      <c r="B1386" t="inlineStr"/>
-      <c r="C1386" t="inlineStr"/>
-      <c r="D1386" t="inlineStr"/>
-      <c r="E1386" t="inlineStr"/>
-      <c r="F1386" t="inlineStr"/>
-      <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="inlineStr"/>
-      <c r="I1386" t="inlineStr"/>
-      <c r="J1386" t="inlineStr"/>
+      <c r="B1386" t="n">
+        <v>-1.553333333333333</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>-2.006666666666664</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>-1.843333333333334</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>-1.727000000000001</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>-1.313333333333333</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>-2.722333333333334</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>-0.7539999999999996</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>-1.702857142857143</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B1387" t="inlineStr"/>
+      <c r="C1387" t="inlineStr"/>
+      <c r="D1387" t="inlineStr"/>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
+      <c r="G1387" t="inlineStr"/>
+      <c r="H1387" t="inlineStr"/>
+      <c r="I1387" t="inlineStr"/>
+      <c r="J1387" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1387"/>
+  <dimension ref="A1:J1388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44623,15 +44623,47 @@
       <c r="A1387" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="B1387" t="inlineStr"/>
-      <c r="C1387" t="inlineStr"/>
-      <c r="D1387" t="inlineStr"/>
-      <c r="E1387" t="inlineStr"/>
-      <c r="F1387" t="inlineStr"/>
-      <c r="G1387" t="inlineStr"/>
-      <c r="H1387" t="inlineStr"/>
-      <c r="I1387" t="inlineStr"/>
-      <c r="J1387" t="inlineStr"/>
+      <c r="B1387" t="n">
+        <v>1.383333333333333</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>0.1166666666666667</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>0.8466666666666649</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>1.664</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>1.496666666666668</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>1.151</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>2.346</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>1.286333333333333</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1388" t="inlineStr"/>
+      <c r="C1388" t="inlineStr"/>
+      <c r="D1388" t="inlineStr"/>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
+      <c r="G1388" t="inlineStr"/>
+      <c r="H1388" t="inlineStr"/>
+      <c r="I1388" t="inlineStr"/>
+      <c r="J1388" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1388"/>
+  <dimension ref="A1:J1389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44655,15 +44655,47 @@
       <c r="A1388" s="2" t="n">
         <v>45474</v>
       </c>
-      <c r="B1388" t="inlineStr"/>
-      <c r="C1388" t="inlineStr"/>
-      <c r="D1388" t="inlineStr"/>
-      <c r="E1388" t="inlineStr"/>
-      <c r="F1388" t="inlineStr"/>
-      <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr"/>
-      <c r="I1388" t="inlineStr"/>
-      <c r="J1388" t="inlineStr"/>
+      <c r="B1388" t="n">
+        <v>0.2466666666666644</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>0.3533333333333326</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>0.9366666666666683</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>1.243999999999999</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>1.073333333333333</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>1.207666666666666</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>2.476</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>1.076809523809523</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1389" t="inlineStr"/>
+      <c r="C1389" t="inlineStr"/>
+      <c r="D1389" t="inlineStr"/>
+      <c r="E1389" t="inlineStr"/>
+      <c r="F1389" t="inlineStr"/>
+      <c r="G1389" t="inlineStr"/>
+      <c r="H1389" t="inlineStr"/>
+      <c r="I1389" t="inlineStr"/>
+      <c r="J1389" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -432,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1389"/>
+  <dimension ref="A1:J1390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44687,15 +44686,47 @@
       <c r="A1389" s="2" t="n">
         <v>45505</v>
       </c>
-      <c r="B1389" t="inlineStr"/>
-      <c r="C1389" t="inlineStr"/>
-      <c r="D1389" t="inlineStr"/>
-      <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr"/>
-      <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr"/>
-      <c r="I1389" t="inlineStr"/>
-      <c r="J1389" t="inlineStr"/>
+      <c r="B1389" t="n">
+        <v>0.2666666666666639</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>0.6900000000000004</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>1.103333333333333</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>0.5573333333333332</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>0.9766666666666666</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>0.807666666666667</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>0.3926666666666669</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>0.6849047619047616</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B1390" t="inlineStr"/>
+      <c r="C1390" t="inlineStr"/>
+      <c r="D1390" t="inlineStr"/>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="inlineStr"/>
+      <c r="G1390" t="inlineStr"/>
+      <c r="H1390" t="inlineStr"/>
+      <c r="I1390" t="inlineStr"/>
+      <c r="J1390" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1390"/>
+  <dimension ref="A1:J1391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44718,15 +44718,47 @@
       <c r="A1390" s="2" t="n">
         <v>45536</v>
       </c>
-      <c r="B1390" t="inlineStr"/>
-      <c r="C1390" t="inlineStr"/>
-      <c r="D1390" t="inlineStr"/>
-      <c r="E1390" t="inlineStr"/>
-      <c r="F1390" t="inlineStr"/>
-      <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="inlineStr"/>
-      <c r="I1390" t="inlineStr"/>
-      <c r="J1390" t="inlineStr"/>
+      <c r="B1390" t="n">
+        <v>1.150666666666664</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>0.580000000000001</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>0.5826666666666664</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>-0.2259999999999991</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>0.09999999999999876</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>0.2143333333333342</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>0.4913333333333334</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>0.4132857142857141</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1391" t="inlineStr"/>
+      <c r="C1391" t="inlineStr"/>
+      <c r="D1391" t="inlineStr"/>
+      <c r="E1391" t="inlineStr"/>
+      <c r="F1391" t="inlineStr"/>
+      <c r="G1391" t="inlineStr"/>
+      <c r="H1391" t="inlineStr"/>
+      <c r="I1391" t="inlineStr"/>
+      <c r="J1391" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1391"/>
+  <dimension ref="A1:J1392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44750,15 +44750,47 @@
       <c r="A1391" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B1391" t="inlineStr"/>
-      <c r="C1391" t="inlineStr"/>
-      <c r="D1391" t="inlineStr"/>
-      <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr"/>
-      <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="inlineStr"/>
-      <c r="I1391" t="inlineStr"/>
-      <c r="J1391" t="inlineStr"/>
+      <c r="B1391" t="n">
+        <v>0.4253333333333345</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>0.8033333333333328</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>0.9159999999999986</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>0.8506666666666653</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>0.7210000000000001</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>0.9979999999999984</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>0.7691904761904756</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1392" t="inlineStr"/>
+      <c r="C1392" t="inlineStr"/>
+      <c r="D1392" t="inlineStr"/>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
+      <c r="G1392" t="inlineStr"/>
+      <c r="H1392" t="inlineStr"/>
+      <c r="I1392" t="inlineStr"/>
+      <c r="J1392" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMin_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1393"/>
+  <dimension ref="A1:J1395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44782,29 +44782,107 @@
       <c r="A1392" s="2" t="n">
         <v>45597</v>
       </c>
-      <c r="B1392" t="inlineStr"/>
-      <c r="C1392" t="inlineStr"/>
-      <c r="D1392" t="inlineStr"/>
-      <c r="E1392" t="inlineStr"/>
-      <c r="F1392" t="inlineStr"/>
-      <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr"/>
-      <c r="I1392" t="inlineStr"/>
-      <c r="J1392" t="inlineStr"/>
+      <c r="B1392" t="n">
+        <v>1.008333333333335</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>1.519999999999999</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>1.546000000000001</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>1.294</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>0.4866666666666681</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>1.614333333333335</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>0.6880000000000006</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>1.165333333333334</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B1393" t="inlineStr"/>
-      <c r="C1393" t="inlineStr"/>
-      <c r="D1393" t="inlineStr"/>
-      <c r="E1393" t="inlineStr"/>
+      <c r="B1393" t="n">
+        <v>1.211666666666662</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>1.619999999999999</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>1.482666666666667</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>1.728999999999999</v>
+      </c>
       <c r="F1393" t="inlineStr"/>
-      <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="inlineStr"/>
-      <c r="I1393" t="inlineStr"/>
-      <c r="J1393" t="inlineStr"/>
+      <c r="G1393" t="n">
+        <v>1.244333333333332</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>1.647999999999998</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>1.489277777777776</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>-0.2066666666666688</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>-1.676666666666666</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>-1.256666666666664</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>0.05966666666666853</v>
+      </c>
+      <c r="F1394" t="inlineStr"/>
+      <c r="G1394" t="n">
+        <v>-0.9423333333333339</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>0.04266666666666907</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>-0.6633333333333326</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1395" t="inlineStr"/>
+      <c r="C1395" t="inlineStr"/>
+      <c r="D1395" t="inlineStr"/>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
+      <c r="G1395" t="inlineStr"/>
+      <c r="H1395" t="inlineStr"/>
+      <c r="I1395" t="inlineStr"/>
+      <c r="J1395" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
